--- a/UPLOAD_FOLDER/Route_wise_schedule.xlsx
+++ b/UPLOAD_FOLDER/Route_wise_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>08:20:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -587,12 +587,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>08:25:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -643,12 +643,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -666,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:35:00</t>
+          <t>09:05:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11:10:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -699,12 +699,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -722,7 +722,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -755,12 +755,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -778,7 +778,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:55:00</t>
+          <t>10:25:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -811,12 +811,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -834,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:40:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -890,7 +890,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -923,12 +923,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -946,7 +946,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>12:55:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -979,12 +979,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1002,7 +1002,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:35:00</t>
+          <t>13:35:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>14:10:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1058,7 +1058,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19:20:00</t>
+          <t>14:50:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1114,7 +1114,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:55:00</t>
+          <t>14:55:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1170,7 +1170,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:05:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21:40:00</t>
+          <t>16:35:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1226,7 +1226,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>16:40:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22:50:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1282,7 +1282,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>17:20:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,29 +1302,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08:20:00</t>
+          <t>17:55:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:55:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1358,29 +1358,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>18:35:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:05:00</t>
+          <t>18:40:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1414,29 +1414,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11:10:00</t>
+          <t>19:20:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1470,29 +1470,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>19:55:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:25:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1526,29 +1526,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12:55:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>21:05:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1582,29 +1582,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>21:40:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:40:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1638,29 +1638,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>22:25:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1694,29 +1694,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:55:00</t>
+          <t>07:25:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>00:30:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1763,16 +1763,16 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:05:00</t>
+          <t>08:05:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18:40:00</t>
+          <t>08:40:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>08:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1862,12 +1862,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19:50:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1875,16 +1875,16 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:23:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20:58:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1931,16 +1931,16 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21:33:00</t>
+          <t>10:05:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1974,12 +1974,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22:08:00</t>
+          <t>10:40:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1987,16 +1987,16 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>22:43:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23:18:00</t>
+          <t>11:20:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2086,29 +2086,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:35:00</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>12:35:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2142,29 +2142,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:10:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:35:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2198,29 +2198,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>13:55:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2254,29 +2254,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:55:00</t>
+          <t>14:35:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2310,29 +2310,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2366,29 +2366,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:40:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>16:20:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2422,29 +2422,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>16:55:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2478,29 +2478,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:35:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17:35:00</t>
+          <t>17:40:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2534,29 +2534,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>18:15:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:20:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2590,29 +2590,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>19:20:00</t>
+          <t>18:55:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:55:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2646,29 +2646,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:35:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21:05:00</t>
+          <t>19:40:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2702,29 +2702,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>21:40:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:45:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2758,29 +2758,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>22:50:00</t>
+          <t>21:20:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:30:00</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23:25:00</t>
+          <t>21:25:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>08:45:00</t>
+          <t>22:05:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2870,29 +2870,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>22:40:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>09:55:00</t>
+          <t>22:45:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2926,29 +2926,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>23:20:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11:03:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2982,29 +2982,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11:38:00</t>
+          <t>08:20:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12:13:00</t>
+          <t>08:25:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3038,29 +3038,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12:48:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>13:23:00</t>
+          <t>09:05:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3094,29 +3094,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:58:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:33:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3150,29 +3150,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:08:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
         <v>4</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>S.T. Bus Stand</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Saurashtra University</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>6</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:43:00</t>
+          <t>10:25:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3206,29 +3206,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>16:18:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16:55:00</t>
+          <t>11:05:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3262,29 +3262,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>00:37:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:05:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:40:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3327,20 +3327,20 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>12:55:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3374,29 +3374,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>19:50:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:23:00</t>
+          <t>13:35:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3430,29 +3430,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>20:58:00</t>
+          <t>14:10:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>00:33:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21:33:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3486,29 +3486,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>22:08:00</t>
+          <t>14:50:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>22:43:00</t>
+          <t>14:55:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3542,29 +3542,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>23:18:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>00:35:00</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Saurashtra University</t>
+          <t>Naranka Gram</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>S.T. Bus Stand</t>
+          <t>Trikon baug</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R61</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>23:53:00</t>
+          <t>15:35:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3598,37 +3598,3957 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>00:28:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16:40:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>13</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>17:20:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>17:55:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>14</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18:35:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>15</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>16</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>19:20:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19:55:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>17</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20:35:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>18</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21:40:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>19</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>20</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>22:25:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>21</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>23:05:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>23:40:00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>22</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>08:05:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>08:40:00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="G57" t="n">
+      <c r="G68" t="n">
         <v>4</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>S.T. Bus Stand</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Saurashtra University</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08:45:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>09:20:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>09:25:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10:05:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>10:45:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>11:25:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>12:35:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>13:10:00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>13:15:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>13:55:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>14:35:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>15:10:00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>10</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>11</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>15:55:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>17:35:00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>13</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>17:40:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>18:15:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
         <v>14</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Depot 1</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>7</v>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>18:20:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>18:55:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>15</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>19:35:00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>16</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>17</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>20:25:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>18</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>21:35:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>19</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22:50:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Naranka Gram</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>20</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Depot 1</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>06:45:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>07:55:00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>09:10:00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>10:25:00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>12:15:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13:25:00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>00:35:00</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>13:35:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14:55:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>16:05:00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>17:20:00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>17:50:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>19:05:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>10</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>07:25:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>08:35:00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>08:40:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>09:50:00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>11:05:00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>12:25:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>4</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>12:55:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>14:05:00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>14:15:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>15:35:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>16:50:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>19:40:00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20:55:00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>10</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>09:10:00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>10:25:00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>11:45:00</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>12:55:00</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>13:25:00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>14:35:00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>15:55:00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>17:10:00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>18:25:00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>18:55:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20:05:00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21:25:00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>10</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>08:40:00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>09:50:00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>11:05:00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>12:25:00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12:35:00</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>13:45:00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>14:15:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>15:25:00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>15:35:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>00:10:00</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>16:50:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>00:05:00</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20:55:00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>00:30:00</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>R73</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>01:10:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Jubeli baug</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Trikon baug</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>10</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
